--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -45,12 +45,18 @@
     <x:t>RC[-2]+R2C2</x:t>
   </x:si>
   <x:si>
+    <x:t>IF(D2=F2,"Yes", "No")</x:t>
+  </x:si>
+  <x:si>
     <x:t>A3+$B$3</x:t>
   </x:si>
   <x:si>
     <x:t>RC[-2]+R3C2</x:t>
   </x:si>
   <x:si>
+    <x:t>IF(D3=F3,"Yes", "No")</x:t>
+  </x:si>
+  <x:si>
     <x:t>A</x:t>
   </x:si>
   <x:si>
@@ -61,12 +67,6 @@
   </x:si>
   <x:si>
     <x:t>="Test" &amp; RC[-2] &amp; "R3C2"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IF(D2=F2,"Yes", "No")</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IF(D3=F3,"Yes", "No")</x:t>
   </x:si>
   <x:si>
     <x:t>IF(D4=F4,"Yes", "No")</x:t>
@@ -529,13 +529,13 @@
         <x:f>A3+$B$3</x:f>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>9</x:v>
       </x:c>
       <x:c r="G3" s="0">
         <x:f>IF(D3=F3,"Yes", "No")</x:f>
@@ -543,22 +543,22 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C4" s="0">
         <x:f>"Test" &amp; A4 &amp; "R3C2"</x:f>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G4" s="0">
         <x:f>IF(D4=F4,"Yes", "No")</x:f>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -460,16 +460,15 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="8" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="16.41" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.27" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.27" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="18.27" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="22.41" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="18.27" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.41" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.410625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.270625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="18.270625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="22.410625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="18.270625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.410625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -144,21 +144,35 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -472,127 +486,127 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
+      <x:c r="B1" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="C1" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
+      <x:c r="D1" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="1" t="s">
+      <x:c r="E1" s="2" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="1" t="s">
+      <x:c r="F1" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="1" t="s">
+      <x:c r="G1" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="n">
+      <x:c r="B2" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="0">
+      <x:c r="C2" s="3">
         <x:f>A2+$B$2</x:f>
       </x:c>
-      <x:c r="D2" s="0" t="s">
+      <x:c r="D2" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="E2" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
+      <x:c r="F2" s="3" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G2" s="0">
+      <x:c r="G2" s="3">
         <x:f>IF(D2=F2,"Yes", "No")</x:f>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="0">
+      <x:c r="C3" s="3">
         <x:f>A3+$B$3</x:f>
       </x:c>
-      <x:c r="D3" s="0" t="s">
+      <x:c r="D3" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="E3" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="F3" s="3" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G3" s="0">
+      <x:c r="G3" s="3">
         <x:f>IF(D3=F3,"Yes", "No")</x:f>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="A4" s="3" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="B4" s="3" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C4" s="0">
+      <x:c r="C4" s="3">
         <x:f>"Test" &amp; A4 &amp; "R3C2"</x:f>
       </x:c>
-      <x:c r="D4" s="0" t="s">
+      <x:c r="D4" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="E4" s="3" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="F4" s="3" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G4" s="0">
+      <x:c r="G4" s="3">
         <x:f>IF(D4=F4,"Yes", "No")</x:f>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="0" t="s">
+      <x:c r="A6" s="3" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B6" s="0">
+      <x:c r="B6" s="3">
         <x:f t="array" ref="B6">A2+A3</x:f>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="0">
+      <x:c r="A11" s="3">
         <x:f>A2 + A10_R1C1_A10_R1C1</x:f>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="0">
+      <x:c r="A12" s="3">
         <x:f>$A$2 + A10_R1C1_A10_R1C1</x:f>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="0">
+      <x:c r="A13" s="3">
         <x:f>SUM(8:9)</x:f>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="0">
+      <x:c r="A14" s="3">
         <x:f>SUM(8:9)</x:f>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -144,35 +144,21 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -486,127 +472,127 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
-      <x:c r="A1" s="2" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
+      <x:c r="B1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="2" t="s">
+      <x:c r="C1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="2" t="s">
+      <x:c r="D1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="2" t="s">
+      <x:c r="E1" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="2" t="s">
+      <x:c r="F1" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="2" t="s">
+      <x:c r="G1" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:7">
-      <x:c r="A2" s="3" t="n">
+      <x:c r="A2" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="3" t="n">
+      <x:c r="B2" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="3">
+      <x:c r="C2" s="0">
         <x:f>A2+$B$2</x:f>
       </x:c>
-      <x:c r="D2" s="3" t="s">
+      <x:c r="D2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="s">
+      <x:c r="E2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F2" s="3" t="s">
+      <x:c r="F2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="G2" s="3">
+      <x:c r="G2" s="0">
         <x:f>IF(D2=F2,"Yes", "No")</x:f>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
-      <x:c r="A3" s="3" t="n">
+      <x:c r="A3" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B3" s="3" t="n">
+      <x:c r="B3" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" s="3">
+      <x:c r="C3" s="0">
         <x:f>A3+$B$3</x:f>
       </x:c>
-      <x:c r="D3" s="3" t="s">
+      <x:c r="D3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E3" s="3" t="s">
+      <x:c r="E3" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F3" s="3" t="s">
+      <x:c r="F3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="G3" s="3">
+      <x:c r="G3" s="0">
         <x:f>IF(D3=F3,"Yes", "No")</x:f>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="A4" s="3" t="s">
+      <x:c r="A4" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="B4" s="3" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C4" s="3">
+      <x:c r="C4" s="0">
         <x:f>"Test" &amp; A4 &amp; "R3C2"</x:f>
       </x:c>
-      <x:c r="D4" s="3" t="s">
+      <x:c r="D4" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="E4" s="3" t="s">
+      <x:c r="E4" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="F4" s="3" t="s">
+      <x:c r="F4" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="G4" s="3">
+      <x:c r="G4" s="0">
         <x:f>IF(D4=F4,"Yes", "No")</x:f>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="A6" s="3" t="s">
+      <x:c r="A6" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B6" s="3">
+      <x:c r="B6" s="0">
         <x:f t="array" ref="B6">A2+A3</x:f>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">
-      <x:c r="A10" s="3" t="n">
+      <x:c r="A10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7">
-      <x:c r="A11" s="3">
+      <x:c r="A11" s="0">
         <x:f>A2 + A10_R1C1_A10_R1C1</x:f>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7">
-      <x:c r="A12" s="3">
+      <x:c r="A12" s="0">
         <x:f>$A$2 + A10_R1C1_A10_R1C1</x:f>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7">
-      <x:c r="A13" s="3">
+      <x:c r="A13" s="0">
         <x:f>SUM(8:9)</x:f>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7">
-      <x:c r="A14" s="3">
+      <x:c r="A14" s="0">
         <x:f>SUM(8:9)</x:f>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -600,14 +600,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -462,13 +462,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.410625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.270625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="18.270625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="22.410625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="18.270625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.410625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="17.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.1090625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.1090625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="22.1090625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="27.1090625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="22.1090625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -462,13 +462,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="17.1090625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.1090625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.1090625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="22.1090625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="27.1090625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="22.1090625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.1090625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="17.10125" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="6.085625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.085625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="22.10125" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="27.10125" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="22.10125" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.085625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -462,13 +462,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="17.10125" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="6.085625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.085625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="22.10125" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="27.10125" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="22.10125" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.085625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="16.410625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="8.270624999999999" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="7.270625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="18.270625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="22.410625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="18.270625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.410625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <x:si>
     <x:t>Num1</x:t>
   </x:si>
@@ -45,18 +45,12 @@
     <x:t>RC[-2]+R2C2</x:t>
   </x:si>
   <x:si>
-    <x:t>IF(D2=F2,"Yes", "No")</x:t>
-  </x:si>
-  <x:si>
     <x:t>A3+$B$3</x:t>
   </x:si>
   <x:si>
     <x:t>RC[-2]+R3C2</x:t>
   </x:si>
   <x:si>
-    <x:t>IF(D3=F3,"Yes", "No")</x:t>
-  </x:si>
-  <x:si>
     <x:t>A</x:t>
   </x:si>
   <x:si>
@@ -69,22 +63,7 @@
     <x:t>="Test" &amp; RC[-2] &amp; "R3C2"</x:t>
   </x:si>
   <x:si>
-    <x:t>IF(D4=F4,"Yes", "No")</x:t>
-  </x:si>
-  <x:si>
     <x:t xml:space="preserve">Array Formula: </x:t>
-  </x:si>
-  <x:si>
-    <x:t>A2+A3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>A2 + A10_R1C1_A10_R1C1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>$A$2 + A10_R1C1_A10_R1C1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SUM(8:9)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -528,13 +507,13 @@
         <x:f>A3+$B$3</x:f>
       </x:c>
       <x:c r="D3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="F3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="G3" s="0">
         <x:f>IF(D3=F3,"Yes", "No")</x:f>
@@ -542,22 +521,22 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="0">
         <x:f>"Test" &amp; A4 &amp; "R3C2"</x:f>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="G4" s="0">
         <x:f>IF(D4=F4,"Yes", "No")</x:f>
@@ -565,7 +544,7 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B6" s="0">
         <x:f t="array" ref="B6">A2+A3</x:f>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -73,7 +73,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
+  <x:fonts count="3">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -83,6 +83,13 @@
     </x:font>
     <x:font>
       <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <x:si>
     <x:t>Num1</x:t>
   </x:si>
@@ -61,6 +61,9 @@
   </x:si>
   <x:si>
     <x:t>="Test" &amp; RC[-2] &amp; "R3C2"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestAR3C2</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Array Formula: </x:t>
@@ -453,7 +456,7 @@
     <x:col min="3" max="3" width="7.270625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="18.270625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="22.410625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="18.270625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.550625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="12.410625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -496,8 +499,8 @@
       <x:c r="E2" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>7</x:v>
+      <x:c r="F2" s="0" t="n">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G2" s="0">
         <x:f>IF(D2=F2,"Yes", "No")</x:f>
@@ -519,8 +522,8 @@
       <x:c r="E3" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>9</x:v>
+      <x:c r="F3" s="0" t="n">
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G3" s="0">
         <x:f>IF(D3=F3,"Yes", "No")</x:f>
@@ -543,7 +546,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G4" s="0">
         <x:f>IF(D4=F4,"Yes", "No")</x:f>
@@ -551,7 +554,7 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B6" s="0">
         <x:f t="array" ref="B6">A2+A3</x:f>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -447,7 +447,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:G14"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -557,7 +557,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B6" s="0">
-        <x:f t="array" ref="B6">A2+A3</x:f>
+        <x:f t="array" ref="B6:B6">A2+A3</x:f>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -451,13 +451,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="16.410625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="8.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="7.270625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="18.270625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="22.410625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.550625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="12.410625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.560625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.1106250000000006" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="6.2806250000000006" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="20.190625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="24.200625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.330625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.170625000000001" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -453,7 +453,7 @@
   <x:cols>
     <x:col min="1" max="1" width="14.560625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="7.1106250000000006" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="6.2806250000000006" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.020625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="20.190625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="24.200625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="10.330625" style="0" customWidth="1"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -134,19 +134,19 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/Formulas.xlsx
@@ -452,12 +452,12 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="14.560625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="7.1106250000000006" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="7.110625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.020625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="20.190625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="24.200625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="10.330625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.170625000000001" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.170625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7">
